--- a/WombaTelemedicine/src/test/resources/excel/ExpectedOutput.xlsx
+++ b/WombaTelemedicine/src/test/resources/excel/ExpectedOutput.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\repository2\WombaTelemedicine\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A99AD4-6F69-41F1-95DC-47643CC41E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{62C29368-0C45-432C-A1C1-9E56A1BA992F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Expected OutPut</t>
   </si>
@@ -37,19 +33,37 @@
   </si>
   <si>
     <t>TelemedicineApp</t>
+  </si>
+  <si>
+    <t>Step 1 of 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login With Email Verification </t>
+  </si>
+  <si>
+    <t>Invalid credentials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -78,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,15 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -389,7 +404,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WombaTelemedicine/src/test/resources/excel/ExpectedOutput.xlsx
+++ b/WombaTelemedicine/src/test/resources/excel/ExpectedOutput.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{62C29368-0C45-432C-A1C1-9E56A1BA992F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B57F8D7F-20E7-409B-B4D3-858A2A2A7A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Expected OutPut</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t xml:space="preserve">Invalid </t>
+  </si>
+  <si>
+    <t>Upcoming Appointments</t>
+  </si>
+  <si>
+    <t>Upcoming Appointments Page</t>
   </si>
 </sst>
 </file>
@@ -376,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,6 +426,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
